--- a/biology/Zoologie/Cybaeus/Cybaeus.xlsx
+++ b/biology/Zoologie/Cybaeus/Cybaeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cybaeus est un genre d'araignées aranéomorphes de la famille des Cybaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cybaeus est un genre d'araignées aranéomorphes de la famille des Cybaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Europe et en Amérique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Europe et en Amérique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 23.5, 05/10/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 23.5, 05/10/2022) :
 Cybaeus abchasicus Charitonov, 1947
 Cybaeus adenes Chamberlin &amp; Ivie, 1932
 Cybaeus aikana Ihara, Koike &amp; Nakano, 2021
@@ -771,11 +787,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par L. Koch en 1868. Il est placé dans les Agelenidae, dans les Dictynidae par Lehtinen en 1967[3] puis dans les Cybaeidae par Forster en 1970[4].
-Bansaia[5] a été placé en synonymie par Yaginuma en 1958[6].
-Heterocybaeus[7] et Dolichocybaeus[7] ont été placés en synonymie par Ihara en 2010[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par L. Koch en 1868. Il est placé dans les Agelenidae, dans les Dictynidae par Lehtinen en 1967 puis dans les Cybaeidae par Forster en 1970.
+Bansaia a été placé en synonymie par Yaginuma en 1958.
+Heterocybaeus et Dolichocybaeus ont été placés en synonymie par Ihara en 2010.
 </t>
         </is>
       </c>
@@ -804,7 +822,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L. Koch, 1868 : « Die Arachnidengattungen Amaurobius, Coelotes and Cybaeus. » Abhandlungen der Naturhistorischen Gesellschaft zu Nürnberg, vol. 4, p. 1-52 (texte intégral).</t>
         </is>
